--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200222.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10300,16 +10300,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10382,151 +10378,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10545,194 +10398,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10740,249 +10407,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11016,18 +10444,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -11037,59 +10465,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11351,59 +10733,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.27272727272727" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.8181818181818" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1818181818182" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.09090909090909" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.63636363636364" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
     <col min="8" max="8" width="4" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5454545454545" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.2727272727273" style="14" customWidth="1"/>
-    <col min="12" max="16" width="12.4545454545455" style="14" customWidth="1"/>
-    <col min="17" max="17" width="8.72727272727273" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.9090909090909" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.2727272727273" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.6363636363636" style="13" customWidth="1"/>
-    <col min="21" max="21" width="67.8181818181818" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.6363636363636" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.1818181818182" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.0909090909091" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
+    <col min="12" max="16" width="12.453125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.26953125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="67.81640625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.1818181818182" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.8181818181818" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.0909090909091" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.4545454545455" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="12" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="19.08984375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90909090909091" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.9090909090909" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.9090909090909" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.4545454545455" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.09090909090909" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.9090909090909" style="12"/>
+    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="16.2" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -11525,7 +10907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="132" spans="1:36">
+    <row r="2" spans="1:40" ht="132">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -11533,10 +10915,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D2" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>41</v>
@@ -11572,7 +10954,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>44</v>
@@ -11582,7 +10964,7 @@
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA2" s="12" t="s">
         <v>46</v>
@@ -11597,7 +10979,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="132" spans="1:30">
+    <row r="3" spans="1:40" ht="132">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11605,10 +10987,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D3" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>41</v>
@@ -11636,7 +11018,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>44</v>
@@ -11645,7 +11027,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>46</v>
@@ -11658,7 +11040,7 @@
       </c>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" ht="132" spans="1:30">
+    <row r="4" spans="1:40" ht="132">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -11666,10 +11048,10 @@
         <v>49</v>
       </c>
       <c r="C4" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D4" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>41</v>
@@ -11697,7 +11079,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>44</v>
@@ -11706,7 +11088,7 @@
         <v>45</v>
       </c>
       <c r="Z4" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>46</v>
@@ -11719,7 +11101,7 @@
       </c>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" ht="132" spans="1:30">
+    <row r="5" spans="1:40" ht="132">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11727,10 +11109,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D5" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>41</v>
@@ -11758,7 +11140,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>44</v>
@@ -11767,7 +11149,7 @@
         <v>45</v>
       </c>
       <c r="Z5" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>46</v>
@@ -11780,7 +11162,7 @@
       </c>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" ht="132" spans="1:30">
+    <row r="6" spans="1:40" ht="132">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -11788,10 +11170,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D6" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>41</v>
@@ -11819,7 +11201,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>44</v>
@@ -11828,7 +11210,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA6" s="12" t="s">
         <v>46</v>
@@ -11841,7 +11223,7 @@
       </c>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" ht="132" spans="1:30">
+    <row r="7" spans="1:40" ht="132">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11849,10 +11231,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D7" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>41</v>
@@ -11880,7 +11262,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>44</v>
@@ -11889,7 +11271,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>46</v>
@@ -11902,7 +11284,7 @@
       </c>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" ht="132" spans="1:30">
+    <row r="8" spans="1:40" ht="132">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -11910,10 +11292,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D8" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>41</v>
@@ -11941,7 +11323,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>44</v>
@@ -11950,7 +11332,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>46</v>
@@ -11963,7 +11345,7 @@
       </c>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" ht="132" spans="1:30">
+    <row r="9" spans="1:40" ht="132">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11971,10 +11353,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D9" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>41</v>
@@ -12002,7 +11384,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>44</v>
@@ -12011,7 +11393,7 @@
         <v>45</v>
       </c>
       <c r="Z9" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>46</v>
@@ -12024,7 +11406,7 @@
       </c>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" ht="132" spans="1:30">
+    <row r="10" spans="1:40" ht="132">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -12032,10 +11414,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D10" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>41</v>
@@ -12063,7 +11445,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U10" s="21" t="s">
         <v>44</v>
@@ -12072,7 +11454,7 @@
         <v>45</v>
       </c>
       <c r="Z10" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>46</v>
@@ -12085,7 +11467,7 @@
       </c>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" ht="132" spans="1:30">
+    <row r="11" spans="1:40" ht="132">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -12093,10 +11475,10 @@
         <v>49</v>
       </c>
       <c r="C11" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D11" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>41</v>
@@ -12124,7 +11506,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>44</v>
@@ -12133,7 +11515,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>46</v>
@@ -12146,7 +11528,7 @@
       </c>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" ht="132" spans="1:30">
+    <row r="12" spans="1:40" ht="132">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -12154,10 +11536,10 @@
         <v>49</v>
       </c>
       <c r="C12" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D12" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>41</v>
@@ -12185,7 +11567,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>44</v>
@@ -12194,7 +11576,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA12" s="12" t="s">
         <v>46</v>
@@ -12207,7 +11589,7 @@
       </c>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" ht="132" spans="1:30">
+    <row r="13" spans="1:40" ht="132">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -12215,10 +11597,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D13" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>41</v>
@@ -12246,7 +11628,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>44</v>
@@ -12255,7 +11637,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA13" s="12" t="s">
         <v>46</v>
@@ -12268,7 +11650,7 @@
       </c>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" ht="132" spans="1:30">
+    <row r="14" spans="1:40" ht="132">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -12276,10 +11658,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D14" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>41</v>
@@ -12307,7 +11689,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>44</v>
@@ -12316,7 +11698,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA14" s="12" t="s">
         <v>46</v>
@@ -12329,7 +11711,7 @@
       </c>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" ht="132" spans="1:30">
+    <row r="15" spans="1:40" ht="132">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -12337,10 +11719,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D15" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>41</v>
@@ -12368,7 +11750,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>44</v>
@@ -12377,7 +11759,7 @@
         <v>45</v>
       </c>
       <c r="Z15" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA15" s="12" t="s">
         <v>46</v>
@@ -12390,7 +11772,7 @@
       </c>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" ht="132" spans="1:30">
+    <row r="16" spans="1:40" ht="132">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -12398,10 +11780,10 @@
         <v>49</v>
       </c>
       <c r="C16" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D16" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>41</v>
@@ -12427,7 +11809,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>44</v>
@@ -12436,7 +11818,7 @@
         <v>45</v>
       </c>
       <c r="Z16" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>46</v>
@@ -12449,7 +11831,7 @@
       </c>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" ht="132" spans="1:30">
+    <row r="17" spans="1:30" ht="132">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -12457,10 +11839,10 @@
         <v>49</v>
       </c>
       <c r="C17" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D17" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>41</v>
@@ -12488,7 +11870,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>44</v>
@@ -12497,7 +11879,7 @@
         <v>45</v>
       </c>
       <c r="Z17" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>46</v>
@@ -12510,7 +11892,7 @@
       </c>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" ht="132" spans="1:30">
+    <row r="18" spans="1:30" ht="132">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -12518,10 +11900,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D18" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>41</v>
@@ -12549,7 +11931,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>44</v>
@@ -12558,7 +11940,7 @@
         <v>45</v>
       </c>
       <c r="Z18" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>46</v>
@@ -12571,7 +11953,7 @@
       </c>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" ht="132" spans="1:30">
+    <row r="19" spans="1:30" ht="132">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12579,10 +11961,10 @@
         <v>49</v>
       </c>
       <c r="C19" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D19" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>41</v>
@@ -12610,7 +11992,7 @@
         <v>43</v>
       </c>
       <c r="T19" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U19" s="21" t="s">
         <v>44</v>
@@ -12619,7 +12001,7 @@
         <v>45</v>
       </c>
       <c r="Z19" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA19" s="12" t="s">
         <v>46</v>
@@ -12632,7 +12014,7 @@
       </c>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" ht="132" spans="1:30">
+    <row r="20" spans="1:30" ht="132">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -12640,10 +12022,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="18">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="D20" s="18">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>41</v>
@@ -12679,7 +12061,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="13">
-        <v>43884.3784722222</v>
+        <v>43884.378472222197</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>44</v>
@@ -12688,7 +12070,7 @@
         <v>45</v>
       </c>
       <c r="Z20" s="13">
-        <v>43884.3854166667</v>
+        <v>43884.385416666701</v>
       </c>
       <c r="AA20" s="12" t="s">
         <v>46</v>
@@ -12702,15 +12084,13 @@
       <c r="AD20" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H1048576">
       <formula1>INDIRECT($G21)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F21:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B21:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
@@ -12729,30 +12109,39 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202002/t20200223_1666413.html"/>
-    <hyperlink ref="V3:V20" r:id="rId1" display="http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202002/t20200223_1666413.html"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3:V20" r:id="rId2" display="http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202002/t20200223_1666413.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F21:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37179,7 +36568,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>82</v>
       </c>
@@ -60038,8 +59427,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>